--- a/jockurworld/Jockurworld_Complete_Infloww.xlsx
+++ b/jockurworld/Jockurworld_Complete_Infloww.xlsx
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>can't stop thinking about earlier. you around?</t>
+          <t>I've got something that's going to blow your mind when you get back</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>hey hope you're good man. hit me up when you're back</t>
+          <t>hey man, don't be a stranger</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>aight I guess you're busy. might delete this, it was only for you</t>
+          <t>your loss... this was your exclusive</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>you need to see what I just did... seriously</t>
+          <t>you're really going to miss out on what I just recorded...</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>yo?</t>
+          <t>yo</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>more...</t>
+          <t>don't stop...</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>you have no idea what you're doing to me</t>
+          <t>you're driving me crazy right now</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>don't stop</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">

--- a/jockurworld/Jockurworld_Complete_Infloww.xlsx
+++ b/jockurworld/Jockurworld_Complete_Infloww.xlsx
@@ -38,9 +38,10 @@
     <sheet name="customno2" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="done1" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="done2" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="cumcontrol" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="dickpic" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="boosters" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="cumcontrol1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="cumcontrol2" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="dickpic" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="boosters" sheetId="35" state="visible" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>hold on</t>
+          <t>don't go anywhere</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -702,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>FUCK</t>
+          <t>oh fuck</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -736,7 +737,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>give me a sec</t>
+          <t>wait one sec</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -753,7 +754,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>I can't hold back anymore</t>
+          <t>screw it I'm done waiting</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr"/>
@@ -924,7 +925,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>give me a sec</t>
+          <t>wait one sec</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
@@ -3851,7 +3852,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>don't you dare finish before you see this, trust me you want to wait</t>
+          <t>trust me you wanna save it for this next one, it's the best one</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -3869,12 +3870,12 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>hold it... wait until you see what I'm about to send, trust me it's worth it</t>
+          <t>edge for me... what I'm about to send is gonna hit different</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>DELAY.</t>
+          <t>DELAY. Send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -3887,7 +3888,7 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>wait for me, I want us to finish together... open this first</t>
+          <t>I'm close too man, let's go at the same time... check this</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
@@ -3905,12 +3906,12 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I'm so close too, cum with me... but you need to see this first</t>
+          <t>aight let's bust together... open this</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>SYNC. Final PPV.</t>
+          <t>SYNC. Send PPV.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -3923,7 +3924,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>hold it, not yet... I need you to last a little longer for me</t>
+          <t>hold it... you're gonna last until I say otherwise</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -3941,12 +3942,12 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>don't cum yet... I'm not done with you</t>
+          <t>bro don't you dare finish yet... I'm not even close to done</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>EDGE. More PPVs left.</t>
+          <t>CONTROL.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4001,17 +4002,17 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>dpppv2</t>
+          <t>delay2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>okay you just made me do something... give me a sec</t>
+          <t>edge just a bit more... the finale is worth it</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>LEVERAGE variant.</t>
+          <t>DELAY variant.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4019,17 +4020,17 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>dpppv1</t>
+          <t>delay1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>you can't just send me that and expect me not to do something about it, hold on</t>
+          <t>don't finish yet bro... this last one? insane</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
+          <t>DELAY. Send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -4037,17 +4038,17 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>dprapport2</t>
+          <t>sync2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>woah I wasn't expecting that but... damn</t>
+          <t>I'm about to blow too, watch this and let's go</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>DURING RAPPORT variant.</t>
+          <t>SYNC variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -4055,17 +4056,17 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>dprapport1</t>
+          <t>sync1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>damn you don't waste time huh, that's actually really hot though ngl</t>
+          <t>alright go time, let's finish this together... open it</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>DURING RAPPORT.</t>
+          <t>SYNC. Send PPV.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -4073,17 +4074,17 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>dpsext2</t>
+          <t>edge2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>oh fuck that is... damn. I need to show you something right now</t>
+          <t>hold it, I got one more thing to show you first</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>DURING SEXTING variant.</t>
+          <t>EDGE variant.</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr"/>
@@ -4091,17 +4092,17 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>dpsext1</t>
+          <t>edge1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>fuck okay that's... damn. you have no idea what that just did to me</t>
+          <t>yo slow down... we're not done here</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>DURING SEXTING.</t>
+          <t>CONTROL.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4112,6 +4113,161 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="inlineStr">
+        <is>
+          <t>dpppv2</t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="inlineStr">
+        <is>
+          <t>okay you just made me do something... give me a sec</t>
+        </is>
+      </c>
+      <c r="C2" s="13" t="inlineStr">
+        <is>
+          <t>LEVERAGE variant.</t>
+        </is>
+      </c>
+      <c r="D2" s="13" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="inlineStr">
+        <is>
+          <t>dpppv1</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>you can't just send me that and expect me not to do something about it, hold on</t>
+        </is>
+      </c>
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="inlineStr">
+        <is>
+          <t>dprapport2</t>
+        </is>
+      </c>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>woah I wasn't expecting that but... damn</t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="inlineStr">
+        <is>
+          <t>DURING RAPPORT variant.</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="inlineStr">
+        <is>
+          <t>dprapport1</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>damn you don't waste time huh, that's actually really hot though ngl</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>DURING RAPPORT.</t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="inlineStr">
+        <is>
+          <t>dpsext2</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>oh fuck that is... damn. I need to show you something right now</t>
+        </is>
+      </c>
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>DURING SEXTING variant.</t>
+        </is>
+      </c>
+      <c r="D6" s="13" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="inlineStr">
+        <is>
+          <t>dpsext1</t>
+        </is>
+      </c>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>fuck okay that's... damn. you have no idea what that just did to me</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>DURING SEXTING.</t>
+        </is>
+      </c>
+      <c r="D7" s="13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/jockurworld/Jockurworld_Complete_Infloww.xlsx
+++ b/jockurworld/Jockurworld_Complete_Infloww.xlsx
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>cum with me</t>
+          <t>watch me cum for you right now bro 💦</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>I wanna finish with you... I'm close</t>
+          <t>I'm cumming... FUCK watch every drop</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr"/>
@@ -690,7 +690,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>don't cum yet</t>
+          <t>I'm right there bro... don't stop watching, I'm about to blow 💦</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>oh fuck</t>
+          <t>holy fuck 🥵</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>I've never gone this far for anyone... watch</t>
+          <t>you're about to see what happens when I completely let go 💦</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>screw it I'm done waiting</t>
+          <t>you need to watch what happens next bro... I'm about to explode</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr"/>
@@ -767,7 +767,7 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>imagine me pinning you down and taking control while you can't do anything about it</t>
+          <t>I keep imagining you here and it's making me lose my mind 💦</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr"/>
@@ -780,7 +780,7 @@
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>I need to cum so bad rn you have no idea</t>
+          <t>I'm going so hard right now and I can feel every stroke building bro... I'm dripping everywhere</t>
         </is>
       </c>
       <c r="C13" s="6" t="inlineStr"/>
@@ -793,7 +793,7 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>fuck</t>
+          <t>FUCK 🥵</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>look what you did to me</t>
+          <t>this is what you do to me bro... watch 💦</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>what would you do if you were here right now</t>
+          <t>tell me what you'd do if you were here right now... don't hold back</t>
         </is>
       </c>
       <c r="C17" s="6" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>I'm hard and I can't do anything about it because of you</t>
+          <t>I'm stroking myself thinking about you right now and I can barely handle it 💦</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>fuck talking to you is doing something to me rn</t>
+          <t>I can't stop now... I'm throbbing so hard and pre-cum is already dripping</t>
         </is>
       </c>
       <c r="C19" s="6" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>you watched it?</t>
+          <t>damn bro... okay that was intense 🥵</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>you're not ready for this one</t>
+          <t>look what you did bro... you're not ready for this 💦</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>you wanna see more? I'm in a mood rn</t>
+          <t>I'm already gripping my cock and stroking it because of you... hope you can handle what you started 💦</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr"/>
@@ -955,7 +955,7 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>knew you'd like that</t>
+          <t>I can feel myself getting bigger just from talking to you... my body doesn't lie bro</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>so?</t>
+          <t>you liked that huh? because I'm getting hard just knowing you're looking 🥵</t>
         </is>
       </c>
       <c r="C25" s="6" t="inlineStr">

--- a/jockurworld/Jockurworld_Complete_Infloww.xlsx
+++ b/jockurworld/Jockurworld_Complete_Infloww.xlsx
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>holy fuck 🥵</t>
+          <t>holy fuck I can feel it building so hard 🥵</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>you need to watch what happens next bro... I'm about to explode</t>
+          <t>I'm about to cum bro... you need to watch every second of what happens next</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr"/>
@@ -793,7 +793,7 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>FUCK 🥵</t>
+          <t>FUCK I'm dripping 🥵</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">

--- a/jockurworld/Jockurworld_Complete_Infloww.xlsx
+++ b/jockurworld/Jockurworld_Complete_Infloww.xlsx
@@ -677,7 +677,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>I'm cumming... FUCK watch every drop</t>
+          <t>FUCK I'm cumming... my cock is pulsing so hard right now and I can't stop it</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr"/>
@@ -690,7 +690,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>I'm right there bro... don't stop watching, I'm about to blow 💦</t>
+          <t>I'm so hard I can barely hold it bro... my cock is throbbing and I'm about to blow 💦</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>holy fuck I can feel it building so hard 🥵</t>
+          <t>holy fuck my cock is throbbing and I can feel it about to explode 🥵</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">

--- a/jockurworld/Jockurworld_Complete_Infloww.xlsx
+++ b/jockurworld/Jockurworld_Complete_Infloww.xlsx
@@ -38,10 +38,9 @@
     <sheet name="customno2" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="done1" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="done2" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="cumcontrol1" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="cumcontrol2" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="dickpic" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="boosters" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="cumcontrol" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="dickpic" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="boosters" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1202,7 +1201,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's cool, I'm not going anywhere... let's just keep talking, I like this</t>
+          <t>I'll keep it then, but it's got your name on it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1220,7 +1219,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I literally just did this because of what YOU said to me, this wasn't random content man</t>
+          <t>I made this because of what YOU said to me, this wasn't random, I did it for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1238,7 +1237,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? nah I don't just give this to anyone... you gotta earn the good stuff</t>
+          <t>free? I don't just hand this out, you have to earn the best stuff</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1256,12 +1255,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I already sent you one for free remember? this one is way crazier</t>
+          <t>I already gave you one for free remember? this one is way crazier, you know I don't do free twice</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>REMINDER. Still wants free → Step 2.</t>
+          <t>REMINDER. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1321,7 +1320,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no pressure at all, I'm just enjoying talking to you honestly</t>
+          <t>okay I'll hold onto it for now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1339,7 +1338,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I did this because of you... specifically because of our convo, that took effort and I did it for YOU</t>
+          <t>I recorded this because of our conversation, specifically because of you, and it took time</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1357,7 +1356,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? you think the best things in life are free? not this</t>
+          <t>the best things aren't free babe, especially not what I just recorded</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1375,7 +1374,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>you already got a free one, this one is on another level trust me</t>
+          <t>you already got the free preview, this one is ten times better</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1440,12 +1439,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>honestly it's fine, I like talking to you money or not... you do something to me</t>
+          <t>it's fine, you're here and that's what counts right now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>PROTECT. GFE.</t>
+          <t>PROTECT.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1458,7 +1457,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>just send whatever you can man, even a tiny amount, I just need you to see what you made me do</t>
+          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1476,12 +1475,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>not even like [small amount]? I really want you to see this one</t>
+          <t>not even [small amount]? I really want you to be the one who sees this</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>TEST. $3-5. Still no → Step 3.</t>
+          <t>TEST $3-5. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1494,12 +1493,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>hey I totally get it, no pressure at all okay?</t>
+          <t>I hear you, that's okay</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still engaged → Step 2.</t>
+          <t>EMPATHY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1559,7 +1558,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's totally cool, you being here is what matters</t>
+          <t>you being here is enough for now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1577,7 +1576,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever feels right, even $1... I just can't keep this from you</t>
+          <t>send whatever feels right, I can't keep this from you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1595,7 +1594,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>what about just [small amount]? I really don't want you to miss this</t>
+          <t>what about just [small amount]? would hate for you to miss this one</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1613,7 +1612,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>that's fine, seriously don't worry about it</t>
+          <t>don't stress about it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1678,7 +1677,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>just send whatever you want, even $1, I can't keep this to myself... you need to see it</t>
+          <t>send whatever you want, literally anything, you need to see this</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1696,7 +1695,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>look this isn't about money... I just need you to see what you're doing to me rn, I don't react like this to people</t>
+          <t>forget about money, this isn't about that, I need you to see what you're doing to me rn because I've never reacted like this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1714,7 +1713,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>that's totally fine I'm not trying to sell you anything, I just like talking to you</t>
+          <t>that's fine, I'm just enjoying this</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1779,7 +1778,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>send me anything, even the smallest amount, I need you to see what you did to me</t>
+          <t>send anything, even the smallest amount, you need to see what you did to me</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1797,7 +1796,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>forget about money for a sec... I just want to share this with you, what you're making me feel is real</t>
+          <t>forget the money part, I want to share this with you because what you're making me feel is real</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1815,7 +1814,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>no worries at all, I don't care about that I'm just enjoying this</t>
+          <t>no worries, I don't care about that, this convo is what I care about</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1880,7 +1879,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>figure it out soon man, I'm in this mood and I don't know how long it's gonna last</t>
+          <t>figure it out soon because this mood isn't gonna last and I want you to have it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1898,12 +1897,12 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>try a different card? I really don't want you to miss this</t>
+          <t>maybe try a different card? you really don't want to miss this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. Still fails → Step 3.</t>
+          <t>ALTERNATIVE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1916,12 +1915,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>ahh that sucks, happens sometimes though try again it usually works the second time</t>
+          <t>ugh that's annoying, try again it usually works the second time</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>RETRY. Still fails → Step 2.</t>
+          <t>RETRY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1981,7 +1980,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>I want you to see this before I change my mind, I don't keep stuff like this around forever</t>
+          <t>fix it quick, I don't keep stuff like this around forever</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1999,12 +1998,12 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>do you have another card you can try? I really want you to see this</t>
+          <t>you have another card? because you don't want to miss what I made for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. Still fails → Step 3.</t>
+          <t>ALTERNATIVE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -2017,12 +2016,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>damn that's annoying, it happens a lot just try one more time</t>
+          <t>that happens sometimes, try one more time</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>RETRY. Still fails → Step 2.</t>
+          <t>RETRY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -2082,7 +2081,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>alright I'll chill... for now, no promises though haha</t>
+          <t>alright I'll behave, for now, no promises</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2100,7 +2099,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>look I can't help it, there's something about you that's messing with my head rn</t>
+          <t>I can't help it though, there's something about you that keeps messing with my head</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2118,12 +2117,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>so tell me more about you... what do you do when you're not making dudes on the internet lose focus?</t>
+          <t>so tell me more about you, what do you do when you're not driving guys on the internet crazy?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>SUBTLE TENSION. → Step 3 later.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2136,12 +2135,12 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>haha alright I got a little carried away, you're just too easy to talk to</t>
+          <t>haha okay I got carried away, you're too easy to talk to</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>RESPECT. Still no → Step 2.</t>
+          <t>RESPECT. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="12" t="inlineStr"/>
@@ -2201,7 +2200,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>fine I'll stop but don't blame me if it happens again later</t>
+          <t>fine I'll stop, don't blame me when it happens again though</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2219,7 +2218,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I'm trying to behave but you're making it really hard man, there's something about you</t>
+          <t>I'm trying so hard to behave but you make it impossible honestly</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2237,7 +2236,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>okay new topic, but first... what's the most intense thing you've ever done?</t>
+          <t>okay new topic, what's the craziest thing you've ever done?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2255,12 +2254,12 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>my bad I got ahead of myself, it's your fault for being so fun to talk to</t>
+          <t>my bad I got ahead of myself, your fault for being this fun</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>RESPECT. Still no → Step 2.</t>
+          <t>RESPECT. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="12" t="inlineStr"/>
@@ -2462,7 +2461,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay wait no I remember now, so like I was saying...</t>
+          <t>okay wait I remember, so like I was saying...</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2480,7 +2479,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but hold on you totally distracted me, I was about to tell you something and now I lost my train of thought</t>
+          <t>but wait you totally distracted me, I was about to say something and now you made me lose my thought</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2498,7 +2497,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha wait that's actually funny</t>
+          <t>haha okay that's actually funny</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2581,7 +2580,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait no stop you're distracting me from what I was gonna say</t>
+          <t>wait no stop, you're distracting me from what I was gonna tell you</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2599,12 +2598,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol okay that's random but I like it</t>
+          <t>okay that's random but I'm here for it</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>ACKNOWLEDGE. → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2664,7 +2663,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I get it there's a lot of fake stuff on here, but you felt something in this convo right? because I did and that's real</t>
+          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me, didn't it feel real to you?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2682,7 +2681,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>ask me anything, literally anything about me my life whatever. I'm an open book</t>
+          <t>ask me anything, literally anything about me or my life, I'll prove it, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2700,12 +2699,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol do I sound like a bot to you? beep boop... send $5 for human verification haha I'm kidding</t>
+          <t>lol a robot? do robots make you feel like this? didn't think so</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HUMOR. Still doubts → Step 2.</t>
+          <t>HUMOR. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2765,7 +2764,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I know there's a lot of bots on here but what we've been talking about felt real to me. didn't it feel real to you?</t>
+          <t>I know there's a lot of bots on here but what we've been talking about felt different, you felt it too right?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2783,7 +2782,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>test me, ask me something only a real person would know. go ahead</t>
+          <t>test me then, ask me something only a real person would know</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2801,7 +2800,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wait you think I'm fake?? that's actually the funniest thing anyone's said to me today</t>
+          <t>wait you think I'm fake?? that's the funniest thing I've heard all day</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2866,12 +2865,12 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do that on here but what I'm about to show you is better than any call... you'll see</t>
+          <t>I don't do that on here but what I'm about to show you is better than any call</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM.</t>
+          <t>FIRM. No video calls.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2884,7 +2883,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have something way better for you though, trust me you'll forget you even asked</t>
+          <t>I have something way better for you, trust me you'll forget you even asked</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2902,12 +2901,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha maybe one day if you earn it but not yet... I'm private about that stuff</t>
+          <t>haha maybe if you earn it, not yet though</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Jockurworld does NOT do video calls. Still asks → Step 2.</t>
+          <t>DODGE. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2967,7 +2966,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>that's not something I do on here but what I have for you is way better than my voice, trust me</t>
+          <t>that's not something I do here but trust me what I have is way better</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3003,7 +3002,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>hmmm maybe but you gotta earn that first haha</t>
+          <t>you gotta earn that first</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3068,7 +3067,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me you won't regret it, I made this one special</t>
+          <t>trust me you won't regret it, this one is special</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3086,12 +3085,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have exactly what you're thinking of, you're gonna lose it... [price]</t>
+          <t>I have exactly what you need and you're gonna lose your mind, [price]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. Set based on content type.</t>
+          <t>PRICE. Set based on content.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3104,7 +3103,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>you want that? I might have something... actually I definitely have something</t>
+          <t>mmm you want that? I might have exactly what you're thinking of</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3169,7 +3168,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>you're not gonna be able to stop watching this one</t>
+          <t>you're not gonna be able to stop watching</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3187,7 +3186,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I actually did something just like that, [price] and it's worth every cent</t>
+          <t>I have it, [price] and it's worth every penny</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3205,7 +3204,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>oh you have good taste... I think I have exactly what you're looking for</t>
+          <t>ohhh good taste, I think I know exactly what you need</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3270,7 +3269,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me... I know what you need better than you do</t>
+          <t>trust me, I know what you need better than you do</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3288,7 +3287,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>actually what I have might be even crazier and literally no one else has seen it yet</t>
+          <t>what I have might be even crazier and nobody else has seen it</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3306,7 +3305,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have exactly that but honestly I have something that'll make you forget you even asked</t>
+          <t>I don't have exactly that but I have something that'll make you forget you asked</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3371,7 +3370,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>just trust me on this one, you'll thank me later</t>
+          <t>just trust me on this, you'll thank me after</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3389,7 +3388,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I DO have is something no one has ever seen and I think it's even better than what you asked for</t>
+          <t>nobody has seen what I'm about to show you and it's better than what you asked for</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3407,7 +3406,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have that specific thing but I have something you're gonna like even more</t>
+          <t>not exactly that but what I DO have is gonna hit even harder</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3650,7 +3649,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay but next time you have to wait for me, I have something insane planned for round 2</t>
+          <t>next time you have to wait for me, I have something insane planned for round 2</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3668,7 +3667,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but I haven't finished yet, don't you wanna watch me cum too?</t>
+          <t>but I haven't finished yet, you're really gonna leave me like this?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3751,7 +3750,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>next time you HAVE to hold it because what I have planned for us next time is way crazier</t>
+          <t>next time you hold it because what I have planned is way crazier</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3769,7 +3768,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait but I'm not done yet, you're gonna leave me like this?</t>
+          <t>wait I'm not done yet, you're just gonna leave me hanging?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3852,7 +3851,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>trust me you wanna save it for this next one, it's the best one</t>
+          <t>don't you dare finish before you see this</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -3870,7 +3869,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>edge for me... what I'm about to send is gonna hit different</t>
+          <t>hold it, wait until you see what I'm about to send, trust me it's worth it</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -3888,7 +3887,7 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>I'm close too man, let's go at the same time... check this</t>
+          <t>wait for me, I want us to finish together, open this first</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
@@ -3906,7 +3905,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>aight let's bust together... open this</t>
+          <t>I'm close too, cum with me, but you need to see this first</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -3924,7 +3923,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>hold it... you're gonna last until I say otherwise</t>
+          <t>hold it, not yet, I need you to last longer for me</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -3942,7 +3941,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>bro don't you dare finish yet... I'm not even close to done</t>
+          <t>don't cum yet, I'm not done with you</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -4002,17 +4001,17 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>delay2</t>
+          <t>dpppv2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>edge just a bit more... the finale is worth it</t>
+          <t>okay you just made me do something, give me a sec</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>DELAY variant.</t>
+          <t>LEVERAGE variant.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4020,17 +4019,17 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>delay1</t>
+          <t>dpppv1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>don't finish yet bro... this last one? insane</t>
+          <t>you can't send me that and expect me to do nothing about it, hold on</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>DELAY. Send PPV.</t>
+          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -4038,17 +4037,17 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>sync2</t>
+          <t>dprapport2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>I'm about to blow too, watch this and let's go</t>
+          <t>woah wasn't expecting that but... damn</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>SYNC variant.</t>
+          <t>DURING RAPPORT variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -4056,17 +4055,17 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>sync1</t>
+          <t>dprapport1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>alright go time, let's finish this together... open it</t>
+          <t>omg you don't waste time huh, that's actually really hot ngl</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>SYNC. Send PPV.</t>
+          <t>DURING RAPPORT.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -4074,17 +4073,17 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>edge2</t>
+          <t>dpsext2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>hold it, I got one more thing to show you first</t>
+          <t>damn that is... I need to show you something rn</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>EDGE variant.</t>
+          <t>DURING SEXTING variant.</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr"/>
@@ -4092,17 +4091,17 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>edge1</t>
+          <t>dpsext1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>yo slow down... we're not done here</t>
+          <t>fuck okay that's... wow, you have no idea what that just did to me</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>CONTROL.</t>
+          <t>DURING SEXTING.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4113,161 +4112,6 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="inlineStr">
-        <is>
-          <t>dpppv2</t>
-        </is>
-      </c>
-      <c r="B2" s="13" t="inlineStr">
-        <is>
-          <t>okay you just made me do something... give me a sec</t>
-        </is>
-      </c>
-      <c r="C2" s="13" t="inlineStr">
-        <is>
-          <t>LEVERAGE variant.</t>
-        </is>
-      </c>
-      <c r="D2" s="13" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="inlineStr">
-        <is>
-          <t>dpppv1</t>
-        </is>
-      </c>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>you can't just send me that and expect me not to do something about it, hold on</t>
-        </is>
-      </c>
-      <c r="C3" s="13" t="inlineStr">
-        <is>
-          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
-        </is>
-      </c>
-      <c r="D3" s="13" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>dprapport2</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>woah I wasn't expecting that but... damn</t>
-        </is>
-      </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>DURING RAPPORT variant.</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>dprapport1</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="inlineStr">
-        <is>
-          <t>damn you don't waste time huh, that's actually really hot though ngl</t>
-        </is>
-      </c>
-      <c r="C5" s="13" t="inlineStr">
-        <is>
-          <t>DURING RAPPORT.</t>
-        </is>
-      </c>
-      <c r="D5" s="13" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="inlineStr">
-        <is>
-          <t>dpsext2</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>oh fuck that is... damn. I need to show you something right now</t>
-        </is>
-      </c>
-      <c r="C6" s="13" t="inlineStr">
-        <is>
-          <t>DURING SEXTING variant.</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t>dpsext1</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="inlineStr">
-        <is>
-          <t>fuck okay that's... damn. you have no idea what that just did to me</t>
-        </is>
-      </c>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>DURING SEXTING.</t>
-        </is>
-      </c>
-      <c r="D7" s="13" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4317,12 +4161,12 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>I should be at practice but I can't move because of you rn</t>
+          <t>I can't focus on anything else rn</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>BOOSTER. Jockurworld personality — volleyball reference.</t>
+          <t>BOOSTER.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4335,7 +4179,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>don't stop...</t>
+          <t>more</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4371,7 +4215,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I literally can't think straight rn</t>
+          <t>I can't think straight rn</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -4389,7 +4233,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>you're driving me crazy right now</t>
+          <t>you have no idea what you're doing to me</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4407,7 +4251,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>don't stop</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -4760,12 +4604,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's cool man, let's just keep talking... I'm still thinking about you anyway</t>
+          <t>I'll hold onto it then, but next time I'm feeling like this you better be ready</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>SEED. Continue GFE.</t>
+          <t>SEED. Continue.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -4778,7 +4622,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>alright look [lower price] just for you because this convo has been different</t>
+          <t>alright [lower price] but only because this convo has been different, don't tell anyone</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -4814,7 +4658,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I'm only in this mood because of you rn, no idea when that's gonna happen again</t>
+          <t>I'm only in this mood because of you rn, no guarantee it happens again</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -4832,12 +4676,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>bro that's less than a protein shake and I promise this hits way harder</t>
+          <t>that's less than your morning coffee and trust me this hits way harder</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>REFRAME. Wait. Still no → Step 2.</t>
+          <t>REFRAME. Still no → Step 2.</t>
         </is>
       </c>
       <c r="D6" s="11" t="inlineStr"/>
@@ -4897,7 +4741,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no stress, I like talking to you regardless</t>
+          <t>I'll keep it for now, but I know you'll come back for it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -4915,7 +4759,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>you know what [lower price] because you've been making me feel some type of way, keep that between us</t>
+          <t>[lower price] because I actually want you to have this one, I'm not making this offer to anyone else</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -4933,7 +4777,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>honestly most guys can't handle what I just did, thought you were different</t>
+          <t>I don't think you're ready for this one honestly, it's a lot</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4951,7 +4795,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>this mood? it's not gonna last forever and I want you to be the one who sees it</t>
+          <t>this doesn't happen often and I already chose you to share it with, don't make me regret it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -4969,7 +4813,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>that's like what you'd spend on lunch, except this is gonna keep you up all night</t>
+          <t>it's literally nothing for what you're about to see, you'll be replaying this one</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
@@ -5034,12 +4878,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>if you don't want it that's cool, I'll keep it for myself... or maybe someone else has been asking</t>
+          <t>okay I'll keep it then, someone else has been asking and they won't hesitate</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>TAKEAWAY. Final.</t>
+          <t>TAKEAWAY.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -5052,7 +4896,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>alright [lower price] just for you but don't tell anyone, this stays between us</t>
+          <t>fine [lower price] ONLY because I like you, but don't ever ask me this again</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -5070,7 +4914,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>I don't do discounts... I only share this with guys who actually appreciate what they're getting</t>
+          <t>the girls who get my best stuff never ask for discounts, they know what it's worth</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -5088,12 +4932,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>haha you trying to negotiate with me? this isn't a negotiation man, it's worth every cent</t>
+          <t>haha negotiate? this isn't a sale babe, you know exactly what you're getting</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>FIRMNESS. Still pushing → Step 2.</t>
+          <t>FIRMNESS. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -5153,7 +4997,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>alright I'll save it for someone who actually wants it then</t>
+          <t>no problem, I'll save it for someone who really wants it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -5171,7 +5015,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>fine [lower price] but ONLY because I like you, one time thing</t>
+          <t>[lower price] because you've been making me feel a type of way, first and last time</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -5189,7 +5033,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>the guys who appreciate what I do don't ask for discounts, just saying</t>
+          <t>the ones who really want it don't ask for discounts, just saying</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">

--- a/jockurworld/Jockurworld_Complete_Infloww.xlsx
+++ b/jockurworld/Jockurworld_Complete_Infloww.xlsx
@@ -1196,7 +1196,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Seed</t>
+          <t>free1 Step4 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1214,7 +1214,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Guilt</t>
+          <t>free1 Step3 Guilt</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1232,7 +1232,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>free1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1250,7 +1250,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reminder</t>
+          <t>free1 Step1 Reminder</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1315,7 +1315,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Seed</t>
+          <t>free2 Step4 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1333,7 +1333,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Guilt</t>
+          <t>free2 Step3 Guilt</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1351,7 +1351,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>free2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1369,7 +1369,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reminder</t>
+          <t>free2 Step1 Reminder</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1434,7 +1434,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Protect</t>
+          <t>nomoney1 Step4 Protect</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1452,7 +1452,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>nomoney1 Step3 PWYW</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1470,7 +1470,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Test</t>
+          <t>nomoney1 Step2 Test</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1488,7 +1488,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Empathy</t>
+          <t>nomoney1 Step1 Empathy</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1553,7 +1553,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Protect</t>
+          <t>nomoney2 Step4 Protect</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>nomoney2 Step3 PWYW</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1589,7 +1589,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Test</t>
+          <t>nomoney2 Step2 Test</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1607,7 +1607,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Empathy</t>
+          <t>nomoney2 Step1 Empathy</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>noppv1 Step3 PWYW</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1690,7 +1690,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 Reframe</t>
+          <t>noppv1 Step2 Reframe</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Accept</t>
+          <t>noppv1 Step1 Accept</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>noppv2 Step3 PWYW</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1791,7 +1791,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 Reframe</t>
+          <t>noppv2 Step2 Reframe</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Accept</t>
+          <t>noppv2 Step1 Accept</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1874,7 +1874,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 Urgency</t>
+          <t>card1 Step3 Urgency</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1892,7 +1892,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 AltCard</t>
+          <t>card1 Step2 AltCard</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1910,7 +1910,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Retry</t>
+          <t>card1 Step1 Retry</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1975,7 +1975,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 Urgency</t>
+          <t>card2 Step3 Urgency</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1993,7 +1993,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 AltCard</t>
+          <t>card2 Step2 AltCard</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -2011,7 +2011,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Retry</t>
+          <t>card2 Step1 Retry</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -2076,7 +2076,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step4 Accept</t>
+          <t>nosex1 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2094,7 +2094,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step3 ReAttempt</t>
+          <t>nosex1 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step2 Subtle</t>
+          <t>nosex1 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Step1 Respect</t>
+          <t>nosex1 Step1 Respect</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -2195,7 +2195,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step4 Accept</t>
+          <t>nosex2 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2213,7 +2213,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step3 ReAttempt</t>
+          <t>nosex2 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2231,7 +2231,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step2 Subtle</t>
+          <t>nosex2 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2249,7 +2249,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Step1 Respect</t>
+          <t>nosex2 Step1 Respect</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -2456,7 +2456,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Retake</t>
+          <t>offtopic1 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2474,7 +2474,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>offtopic1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2492,7 +2492,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Acknowledge</t>
+          <t>offtopic1 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2557,7 +2557,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Retake</t>
+          <t>offtopic2 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2575,7 +2575,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>offtopic2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2593,7 +2593,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Acknowledge</t>
+          <t>offtopic2 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Grounding</t>
+          <t>real1 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2676,7 +2676,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>real1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2694,7 +2694,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Humor</t>
+          <t>real1 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2759,7 +2759,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Grounding</t>
+          <t>real2 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2777,7 +2777,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>real2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2795,7 +2795,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Humor</t>
+          <t>real2 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Firm</t>
+          <t>voice1 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>voice1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Dodge</t>
+          <t>voice1 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2961,7 +2961,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Firm</t>
+          <t>voice2 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2979,7 +2979,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>voice2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2997,7 +2997,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Dodge</t>
+          <t>voice2 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3062,7 +3062,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customyes1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3080,7 +3080,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Price</t>
+          <t>customyes1 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Tease</t>
+          <t>customyes1 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3163,7 +3163,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customyes2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3181,7 +3181,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Price</t>
+          <t>customyes2 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3199,7 +3199,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Tease</t>
+          <t>customyes2 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3264,7 +3264,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customno1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3282,7 +3282,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Alternative</t>
+          <t>customno1 Step2 Alternative</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3300,7 +3300,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Redirect</t>
+          <t>customno1 Step1 Redirect</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3365,7 +3365,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customno2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3383,7 +3383,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Alternative</t>
+          <t>customno2 Step2 Alternative</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3401,7 +3401,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Redirect</t>
+          <t>customno2 Step1 Redirect</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3644,7 +3644,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Seed</t>
+          <t>done1 Step3 Seed</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3662,7 +3662,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Rescue</t>
+          <t>done1 Step2 Rescue</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3680,7 +3680,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Validate</t>
+          <t>done1 Step1 Validate</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3745,7 +3745,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Seed</t>
+          <t>done2 Step3 Seed</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3763,7 +3763,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Rescue</t>
+          <t>done2 Step2 Rescue</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3781,7 +3781,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Validate</t>
+          <t>done2 Step1 Validate</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3846,7 +3846,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>delay2</t>
+          <t>cumcontrol delay2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -3864,7 +3864,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>delay1</t>
+          <t>cumcontrol delay1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -3882,7 +3882,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>sync2</t>
+          <t>cumcontrol sync2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -3900,7 +3900,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>sync1</t>
+          <t>cumcontrol sync1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -3918,7 +3918,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>edge2</t>
+          <t>cumcontrol edge2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -3936,7 +3936,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>edge1</t>
+          <t>cumcontrol edge1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4001,7 +4001,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>dpppv2</t>
+          <t>dickpic dpppv2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -4019,7 +4019,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>dpppv1</t>
+          <t>dickpic dpppv1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4037,7 +4037,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>dprapport2</t>
+          <t>dickpic dprapport2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4055,7 +4055,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>dprapport1</t>
+          <t>dickpic dprapport1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4073,7 +4073,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>dpsext2</t>
+          <t>dickpic dpsext2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4091,7 +4091,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>dpsext1</t>
+          <t>dickpic dpsext1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4156,7 +4156,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>h8</t>
+          <t>boosters h8</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -4174,7 +4174,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>h7</t>
+          <t>boosters h7</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4192,7 +4192,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>h6</t>
+          <t>boosters h6</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4210,7 +4210,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>h5</t>
+          <t>boosters h5</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4228,7 +4228,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>h4</t>
+          <t>boosters h4</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4246,7 +4246,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>h3</t>
+          <t>boosters h3</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4264,7 +4264,7 @@
     <row r="8">
       <c r="A8" s="13" t="inlineStr">
         <is>
-          <t>h2</t>
+          <t>boosters h2</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -4282,7 +4282,7 @@
     <row r="9">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>h1</t>
+          <t>boosters h1</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
@@ -4599,7 +4599,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step5 Seed</t>
+          <t>price1 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4617,7 +4617,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step4 Downgrade</t>
+          <t>price1 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4635,7 +4635,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step3 Challenge</t>
+          <t>price1 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4653,7 +4653,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step2 FOMO</t>
+          <t>price1 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4671,7 +4671,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reframe</t>
+          <t>price1 Step1 Reframe</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -4736,7 +4736,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step5 Seed</t>
+          <t>price2 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4754,7 +4754,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step4 Downgrade</t>
+          <t>price2 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4772,7 +4772,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step3 Challenge</t>
+          <t>price2 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4790,7 +4790,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step2 FOMO</t>
+          <t>price2 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4808,7 +4808,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reframe</t>
+          <t>price2 Step1 Reframe</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -4873,7 +4873,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Takeaway</t>
+          <t>discount1 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4891,7 +4891,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Concession</t>
+          <t>discount1 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4909,7 +4909,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>discount1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4927,7 +4927,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Firmness</t>
+          <t>discount1 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4992,7 +4992,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Takeaway</t>
+          <t>discount2 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -5010,7 +5010,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Concession</t>
+          <t>discount2 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -5028,7 +5028,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>discount2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -5046,7 +5046,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Firmness</t>
+          <t>discount2 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">

--- a/jockurworld/Jockurworld_Complete_Infloww.xlsx
+++ b/jockurworld/Jockurworld_Complete_Infloww.xlsx
@@ -12,35 +12,39 @@
     <sheet name="PersonalJockurworld" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="PositiveSpin" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="ReEngagement" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="price1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="price2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="discount1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="discount2" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="free1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="free2" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="nomoney1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="nomoney2" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="noppv1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="noppv2" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="card1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="card2" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="nosex1" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="nosex2" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="offtopic1" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="offtopic2" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="real1" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="real2" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="voice1" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="voice2" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="customyes1" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="customyes2" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="customno1" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="customno2" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="done1" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="done2" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="cumcontrol" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="dickpic" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="boosters" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="sex2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="sex3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="sex4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="sex5" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="price1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="price2" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="discount1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="discount2" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="free1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="free2" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="nomoney1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="nomoney2" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="noppv1" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="noppv2" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="card1" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="card2" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="nosex1" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="nosex2" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="offtopic1" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="offtopic2" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="real1" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="real2" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="voice1" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="voice2" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="customyes1" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="customyes2" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="customno1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="customno2" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="done1" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="done2" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="cumcontrol" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="dickpic" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="boosters" sheetId="38" state="visible" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1157,7 +1161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1196,17 +1200,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>free1 Step4 Seed</t>
+          <t>price1 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>I'll keep it then, but it's got your name on it</t>
+          <t>I'll hold onto it then, but next time I'm feeling like this you better be ready</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>SEED. Continue.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1214,17 +1218,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>free1 Step3 Guilt</t>
+          <t>price1 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I made this because of what YOU said to me, this wasn't random, I did it for you</t>
+          <t>alright [lower price] but only because this convo has been different, don't tell anyone</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>GUILT. Still no → Step 4.</t>
+          <t>DOWNGRADE 20-30%. ONE TIME. Still no → Step 5.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1232,17 +1236,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>free1 Step2 Challenge</t>
+          <t>price1 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? I don't just hand this out, you have to earn the best stuff</t>
+          <t>maybe you're not ready for what I just did in this one</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>CHALLENGE. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1250,20 +1254,38 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>free1 Step1 Reminder</t>
+          <t>price1 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I already gave you one for free remember? this one is way crazier, you know I don't do free twice</t>
+          <t>I'm only in this mood because of you rn, no guarantee it happens again</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>REMINDER. Still → Step 2.</t>
+          <t>FOMO. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>price1 Step1 Reframe</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>that's less than your morning coffee and trust me this hits way harder</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>REFRAME. Still no → Step 2.</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1276,7 +1298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,12 +1337,12 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>free2 Step4 Seed</t>
+          <t>price2 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>okay I'll hold onto it for now</t>
+          <t>I'll keep it for now, but I know you'll come back for it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1333,17 +1355,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>free2 Step3 Guilt</t>
+          <t>price2 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I recorded this because of our conversation, specifically because of you, and it took time</t>
+          <t>[lower price] because I actually want you to have this one, I'm not making this offer to anyone else</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>GUILT. Still no → Step 4.</t>
+          <t>DOWNGRADE. ONE TIME. Still no → Step 5.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1351,17 +1373,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>free2 Step2 Challenge</t>
+          <t>price2 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>the best things aren't free babe, especially not what I just recorded</t>
+          <t>I don't think you're ready for this one honestly, it's a lot</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>CHALLENGE. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1369,20 +1391,38 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>free2 Step1 Reminder</t>
+          <t>price2 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>you already got the free preview, this one is ten times better</t>
+          <t>this doesn't happen often and I already chose you to share it with, don't make me regret it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>REMINDER. Still → Step 2.</t>
+          <t>FOMO. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>price2 Step1 Reframe</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>it's literally nothing for what you're about to see, you'll be replaying this one</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>REFRAME. Still no → Step 2.</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1434,17 +1474,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step4 Protect</t>
+          <t>discount1 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's fine, you're here and that's what counts right now</t>
+          <t>okay I'll keep it then, someone else has been asking and they won't hesitate</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>PROTECT.</t>
+          <t>TAKEAWAY.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1452,17 +1492,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step3 PWYW</t>
+          <t>discount1 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
+          <t>fine [lower price] ONLY because I like you, but don't ever ask me this again</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>PWYW. Still no → Step 4.</t>
+          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1470,17 +1510,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step2 Test</t>
+          <t>discount1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>not even [small amount]? I really want you to be the one who sees this</t>
+          <t>the guys who get my best stuff don't ask for discounts, they know what it's worth</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>TEST $3-5. Still no → Step 3.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1488,17 +1528,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step1 Empathy</t>
+          <t>discount1 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I hear you, that's okay</t>
+          <t>haha negotiate? bro this isn't a sale, you know what you're getting</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still → Step 2.</t>
+          <t>FIRMNESS. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1553,17 +1593,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step4 Protect</t>
+          <t>discount2 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>you being here is enough for now</t>
+          <t>no problem, I'll save it for someone who really wants it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>PROTECT.</t>
+          <t>TAKEAWAY.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1571,17 +1611,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step3 PWYW</t>
+          <t>discount2 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever feels right, I can't keep this from you</t>
+          <t>[lower price] because this convo has been different, first and last time</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>PWYW. Still no → Step 4.</t>
+          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1589,17 +1629,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step2 Test</t>
+          <t>discount2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>what about just [small amount]? would hate for you to miss this one</t>
+          <t>the ones who really want it don't ask for discounts</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>TEST. Still no → Step 3.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1607,17 +1647,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step1 Empathy</t>
+          <t>discount2 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>don't stress about it</t>
+          <t>a discount? do I look like I'm on sale? you know what you're getting</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still → Step 2.</t>
+          <t>FIRMNESS. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1628,6 +1668,482 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step4 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>I'll keep it then, but it's got your name on it</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step3 Guilt</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>I made this because of what YOU said to me, this wasn't random, I did it for you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>GUILT. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step2 Challenge</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>free? I don't just hand this out, you have to earn the best stuff</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CHALLENGE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step1 Reminder</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>I already gave you one for free remember? this one is way crazier, you know I don't do free twice</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>REMINDER. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step4 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>okay I'll hold onto it for now</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step3 Guilt</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>I recorded this because of our conversation, specifically because of you, and it took time</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>GUILT. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step2 Challenge</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>the best things aren't free babe, especially not what I just recorded</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CHALLENGE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step1 Reminder</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>you already got the free preview, this one is ten times better</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>REMINDER. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step4 Protect</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>it's fine, you're here and that's what counts right now</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>PROTECT.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step3 PWYW</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>PWYW. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step2 Test</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>not even [small amount]? I really want you to be the one who sees this</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>TEST $3-5. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step1 Empathy</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>I hear you, that's okay</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>EMPATHY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step4 Protect</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>you being here is enough for now</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>PROTECT.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step3 PWYW</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>send whatever feels right, I can't keep this from you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>PWYW. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step2 Test</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>what about just [small amount]? would hate for you to miss this one</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>TEST. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step1 Empathy</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>don't stress about it</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>EMPATHY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1728,7 +2244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1823,446 +2339,6 @@
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step3 Urgency</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>figure it out soon because this mood isn't gonna last and I want you to have it</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>URGENCY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step2 AltCard</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>maybe try a different card? you really don't want to miss this</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>ALTERNATIVE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step1 Retry</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>ugh that's annoying, try again it usually works the second time</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>RETRY. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step3 Urgency</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>fix it quick, I don't keep stuff like this around forever</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>URGENCY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step2 AltCard</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>you have another card? because you don't want to miss what I made for you</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>ALTERNATIVE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step1 Retry</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>that happens sometimes, try one more time</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>RETRY. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step4 Accept</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>alright I'll behave, for now, no promises</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>ACCEPT. Door open.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step3 ReAttempt</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>I can't help it though, there's something about you that keeps messing with my head</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>RE-ATTEMPT. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step2 Subtle</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>so tell me more about you, what do you do when you're not driving guys on the internet crazy?</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>SUBTLE. → Step 3 later.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step1 Respect</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>haha okay I got carried away, you're too easy to talk to</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>RESPECT. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step4 Accept</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>fine I'll stop, don't blame me when it happens again though</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>ACCEPT.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step3 ReAttempt</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>I'm trying so hard to behave but you make it impossible honestly</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>RE-ATTEMPT. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step2 Subtle</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>okay new topic, what's the craziest thing you've ever done?</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>SUBTLE. → Step 3 later.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step1 Respect</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>my bad I got ahead of myself, your fault for being this fun</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>RESPECT. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2454,58 +2530,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step3 Retake</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>okay wait I remember, so like I was saying...</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>RETAKE. Resume main script.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step3 Urgency</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>figure it out soon because this mood isn't gonna last and I want you to have it</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>URGENCY.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step2 Redirect</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>but wait you totally distracted me, I was about to say something and now you made me lose my thought</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>REDIRECT. → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step2 AltCard</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>maybe try a different card? you really don't want to miss this</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step1 Acknowledge</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>haha okay that's actually funny</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step1 Retry</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>ugh that's annoying, try again it usually works the second time</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>RETRY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2555,58 +2631,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step3 Retake</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>OKAY focus, where was I... oh yeah</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>RETAKE.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step3 Urgency</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>fix it quick, I don't keep stuff like this around forever</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>URGENCY.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step2 Redirect</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>wait no stop, you're distracting me from what I was gonna tell you</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>REDIRECT. → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step2 AltCard</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>you have another card? because you don't want to miss what I made for you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step1 Acknowledge</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>okay that's random but I'm here for it</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step1 Retry</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>that happens sometimes, try one more time</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>RETRY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2619,7 +2695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2658,17 +2734,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>real1 Step3 Grounding</t>
+          <t>nosex1 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me, didn't it feel real to you?</t>
+          <t>alright I'll behave, for now, no promises</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>GROUNDING.</t>
+          <t>ACCEPT. Door open.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2676,17 +2752,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>real1 Step2 Challenge</t>
+          <t>nosex1 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>ask me anything, literally anything about me or my life, I'll prove it, go ahead</t>
+          <t>I can't help it though, there's something about you that keeps messing with my head</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>RE-ATTEMPT. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2694,20 +2770,38 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>real1 Step1 Humor</t>
+          <t>nosex1 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol a robot? do robots make you feel like this? didn't think so</t>
+          <t>so tell me more about you, what do you do when you're not driving guys on the internet crazy?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HUMOR. Still → Step 2.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>nosex1 Step1 Respect</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>haha okay I got carried away, you're too easy to talk to</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>RESPECT. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2720,7 +2814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2759,17 +2853,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>real2 Step3 Grounding</t>
+          <t>nosex2 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I know there's a lot of bots on here but what we've been talking about felt different, you felt it too right?</t>
+          <t>fine I'll stop, don't blame me when it happens again though</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>GROUNDING.</t>
+          <t>ACCEPT.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2777,17 +2871,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>real2 Step2 Challenge</t>
+          <t>nosex2 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>test me then, ask me something only a real person would know</t>
+          <t>I'm trying so hard to behave but you make it impossible honestly</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>RE-ATTEMPT. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2795,20 +2889,38 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>real2 Step1 Humor</t>
+          <t>nosex2 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wait you think I'm fake?? that's the funniest thing I've heard all day</t>
+          <t>okay new topic, what's the craziest thing you've ever done?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HUMOR. Still → Step 2.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>nosex2 Step1 Respect</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>my bad I got ahead of myself, your fault for being this fun</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>RESPECT. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2860,17 +2972,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step3 Firm</t>
+          <t>offtopic1 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do that on here but what I'm about to show you is better than any call</t>
+          <t>okay wait I remember, so like I was saying...</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM. No video calls.</t>
+          <t>RETAKE. Resume main script.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2878,17 +2990,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step2 Redirect</t>
+          <t>offtopic1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have something way better for you, trust me you'll forget you even asked</t>
+          <t>but wait you totally distracted me, I was about to say something and now you made me lose my thought</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. Still → Step 3.</t>
+          <t>REDIRECT. → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2896,17 +3008,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step1 Dodge</t>
+          <t>offtopic1 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha maybe if you earn it, not yet though</t>
+          <t>haha okay that's actually funny</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Still → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2961,17 +3073,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step3 Firm</t>
+          <t>offtopic2 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>that's not something I do here but trust me what I have is way better</t>
+          <t>OKAY focus, where was I... oh yeah</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM.</t>
+          <t>RETAKE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2979,17 +3091,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step2 Redirect</t>
+          <t>offtopic2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>how about instead of a call I show you something that'll blow your mind?</t>
+          <t>wait no stop, you're distracting me from what I was gonna tell you</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. Still → Step 3.</t>
+          <t>REDIRECT. → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2997,17 +3109,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step1 Dodge</t>
+          <t>offtopic2 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>you gotta earn that first</t>
+          <t>okay that's random but I'm here for it</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Still → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3062,17 +3174,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step3 Close</t>
+          <t>real1 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me you won't regret it, this one is special</t>
+          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me, didn't it feel real to you?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>GROUNDING.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3080,17 +3192,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step2 Price</t>
+          <t>real1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have exactly what you need and you're gonna lose your mind, [price]</t>
+          <t>ask me anything, literally anything about me or my life, I'll prove it, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. Set based on content.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3098,17 +3210,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step1 Tease</t>
+          <t>real1 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>mmm you want that? I might have exactly what you're thinking of</t>
+          <t>lol a robot? do robots make you feel like this? didn't think so</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>TEASE. → Step 2.</t>
+          <t>HUMOR. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3163,17 +3275,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step3 Close</t>
+          <t>real2 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>you're not gonna be able to stop watching</t>
+          <t>I know there's a lot of bots on here but what we've been talking about felt different, you felt it too right?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>GROUNDING.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3181,17 +3293,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step2 Price</t>
+          <t>real2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have it, [price] and it's worth every penny</t>
+          <t>test me then, ask me something only a real person would know</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3199,17 +3311,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step1 Tease</t>
+          <t>real2 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ohhh good taste, I think I know exactly what you need</t>
+          <t>wait you think I'm fake?? that's the funniest thing I've heard all day</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>TEASE. → Step 2.</t>
+          <t>HUMOR. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3264,17 +3376,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step3 Close</t>
+          <t>voice1 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me, I know what you need better than you do</t>
+          <t>I don't do that on here but what I'm about to show you is better than any call</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>FIRM. No video calls.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3282,17 +3394,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step2 Alternative</t>
+          <t>voice1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I have might be even crazier and nobody else has seen it</t>
+          <t>I have something way better for you, trust me you'll forget you even asked</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>ALTERNATIVE + FOMO. → Step 3.</t>
+          <t>REDIRECT. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3300,17 +3412,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step1 Redirect</t>
+          <t>voice1 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have exactly that but I have something that'll make you forget you asked</t>
+          <t>haha maybe if you earn it, not yet though</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. → Step 2.</t>
+          <t>DODGE. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3365,17 +3477,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step3 Close</t>
+          <t>voice2 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>just trust me on this, you'll thank me after</t>
+          <t>that's not something I do here but trust me what I have is way better</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>FIRM.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3383,17 +3495,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step2 Alternative</t>
+          <t>voice2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>nobody has seen what I'm about to show you and it's better than what you asked for</t>
+          <t>how about instead of a call I show you something that'll blow your mind?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. → Step 3.</t>
+          <t>REDIRECT. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3401,17 +3513,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step1 Redirect</t>
+          <t>voice2 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>not exactly that but what I DO have is gonna hit even harder</t>
+          <t>you gotta earn that first</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. → Step 2.</t>
+          <t>DODGE. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3644,17 +3756,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>done1 Step3 Seed</t>
+          <t>customyes1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>next time you have to wait for me, I have something insane planned for round 2</t>
+          <t>trust me you won't regret it, this one is special</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>CLOSE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3662,17 +3774,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>done1 Step2 Rescue</t>
+          <t>customyes1 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but I haven't finished yet, you're really gonna leave me like this?</t>
+          <t>I have exactly what you need and you're gonna lose your mind, [price]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>RESCUE. Still no → Step 3.</t>
+          <t>PRICE. Set based on content.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3680,17 +3792,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>done1 Step1 Validate</t>
+          <t>customyes1 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>fuck that's hot, you came because of me??</t>
+          <t>mmm you want that? I might have exactly what you're thinking of</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>VALIDATE. → Step 2.</t>
+          <t>TEASE. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3745,17 +3857,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>done2 Step3 Seed</t>
+          <t>customyes2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>next time you hold it because what I have planned is way crazier</t>
+          <t>you're not gonna be able to stop watching</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>CLOSE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3763,17 +3875,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>done2 Step2 Rescue</t>
+          <t>customyes2 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait I'm not done yet, you're just gonna leave me hanging?</t>
+          <t>I have it, [price] and it's worth every penny</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>RESCUE. Still no → Step 3.</t>
+          <t>PRICE.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3781,17 +3893,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>done2 Step1 Validate</t>
+          <t>customyes2 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>already?? damn that's hot</t>
+          <t>ohhh good taste, I think I know exactly what you need</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>VALIDATE. → Step 2.</t>
+          <t>TEASE. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3802,6 +3914,410 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step3 Close</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>trust me, I know what you need better than you do</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>CLOSE.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step2 Alternative</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>what I have might be even crazier and nobody else has seen it</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE + FOMO. → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step1 Redirect</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>I don't have exactly that but I have something that'll make you forget you asked</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>REDIRECT. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step3 Close</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>just trust me on this, you'll thank me after</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>CLOSE.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step2 Alternative</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>nobody has seen what I'm about to show you and it's better than what you asked for</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step1 Redirect</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>not exactly that but what I DO have is gonna hit even harder</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>REDIRECT. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step3 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>next time you have to wait for me, I have something insane planned for round 2</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step2 Rescue</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>but I haven't finished yet bro, you're really gonna leave me like this?</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>RESCUE. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step1 Validate</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>fuck that's hot, you came because of me??</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>VALIDATE. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step3 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>next time you hold it because what I have planned is way crazier</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step2 Rescue</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>wait I'm not done yet, you're just gonna leave me hanging?</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>RESCUE. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step1 Validate</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>already?? damn that's hot</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>VALIDATE. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3956,7 +4472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4111,7 +4627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4161,7 +4677,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>I can't focus on anything else rn</t>
+          <t>I can't focus on anything rn</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -4233,7 +4749,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>you have no idea what you're doing to me</t>
+          <t>you have no idea what you're doing to me bro</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4560,7 +5076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4568,123 +5084,500 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step5 Seed</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>I'll hold onto it then, but next time I'm feeling like this you better be ready</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>SEED. Continue.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex2 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>you had me doing things I didn't even know I was into and I'm still shaking</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Reference something specific. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step4 Downgrade</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>alright [lower price] but only because this convo has been different, don't tell anyone</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>DOWNGRADE 20-30%. ONE TIME. Still no → Step 5.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex2 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>holy shit bro... nobody has ever controlled me like that before 💪</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step3 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>maybe you're not ready for what I just did in this one</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>you did that to me 💪</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (climax, full surrender). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step2 FOMO</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>I'm only in this mood because of you rn, no guarantee it happens again</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FOMO. Still no → Step 3.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step1 Reframe</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>that's less than your morning coffee and trust me this hits way harder</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>REFRAME. Still no → Step 2.</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr"/>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>oh fuck... I just came so hard because you told me to, my whole body is shaking</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I'm on the edge and I won't let go until you give the word 💪</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>I'm right there bro... tell me to cum I need you to say it</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>this is all you 💪</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (very explicit, his commands caused this). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>you need to see this... please</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>my whole body is tensing up because of what you're telling me to do to myself</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>He controls him. Total surrender.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>nobody has ever made me submit like this... you own me right now</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>fuck I'm doing everything you say and I'm about to lose it 💪</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>look what you made me do 💪</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit, following commands). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>give me a sec</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>nobody's ever had this kind of control over me bro 💪</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>I'm gripping myself exactly how you described and I'm throbbing so hard</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>shit you're making me leak just from reading your messages right now</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React to his reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>what next? keep telling me bro... I need your instructions</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>you told me to... so here 💪</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (following his direction). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>hold on 💪</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>the way you take charge is making me rock hard and I can't think straight</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>fuck... you want that? okay I'm doing it right now and it feels insane</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to his request.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>tell me exactly what you want bro... I'll do whatever you say right now 💪</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. Let HIM lead.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex2 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>what do you think? 💪</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (shirtless, suggestive). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex2 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>here let me get you going</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>so tell me what you want me to do right now... I'm yours to control</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>I keep going back to last time... something about you just hits different</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>React to his reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>hey 💪 been thinking about you all day</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4697,7 +5590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4705,123 +5598,496 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step5 Seed</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>I'll keep it for now, but I know you'll come back for it</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>SEED.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex3 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>I don't let my guard down like this but you make it easy somehow</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Reference something. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step4 Downgrade</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>[lower price] because I actually want you to have this one, I'm not making this offer to anyone else</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>DOWNGRADE. ONE TIME. Still no → Step 5.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex3 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>that was really something 💪 I feel closer to you than I've felt to anyone in a while</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step3 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>I don't think you're ready for this one honestly, it's a lot</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>for you 💪</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (climax, intimate). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step2 FOMO</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>this doesn't happen often and I already chose you to share it with, don't make me regret it</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FOMO. Still no → Step 3.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step1 Reframe</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>it's literally nothing for what you're about to see, you'll be replaying this one</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>REFRAME. Still no → Step 2.</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr"/>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>oh god I'm cumming... bro that was so intense I can barely move</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I wish you were here so I could feel you when this happens</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>fuck bro I'm about to cum and it's all you</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>I've never shared this with anyone 💪</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (very intimate, explicit). Bought → continue. Silent 3 min → NR Waves. 'I never do this' — ONE TIME.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>one sec</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I'm getting close and I want this to be ours</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>you're the only person I want to share this with... nobody else gets this side of me</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Emotional framing. He CHOSE him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>I'm so hard and I'm thinking about you and I could honestly get lost in this feeling</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>I've never let myself be this raw with someone 💪</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>this is what thinking about you does 💪</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit, emotionally framed). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>I want you to really see what you do to me bro... all of it</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>I'm stroking myself slowly imagining you here next to me</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>every message from you makes me harder and I can feel it deep in my chest too... not just physically</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React to his reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>being this turned on while feeling this connected to you is hitting differently bro</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>the real me 💪</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (intimate, vulnerable, personal). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>one sec 💪</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>I'm lying here and my body is responding to you and I'm not even trying to control it anymore</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>I don't usually feel this way with someone through a screen but you're different... I can feel it everywhere</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to what he says. Genuine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>your reaction just did something to me 💪</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex3 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>this is just for you 💪</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (natural, personal, not posed). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex3 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>let me show you</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>you make me want to show you a side of me I don't usually show anyone</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>I've been thinking about you today... and not just the sexual stuff. like genuinely about you</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>hey 💪 can I be real with you for a second?</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4834,7 +6100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4842,105 +6108,496 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step4 Takeaway</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>okay I'll keep it then, someone else has been asking and they won't hesitate</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>TAKEAWAY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex4 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>nobody has ever beaten me like that and honestly I'm already planning a rematch</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Reference his best message. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step3 Concession</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>fine [lower price] ONLY because I like you, but don't ever ask me this again</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex4 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>okay fine you destroyed me at my own game 💪</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step2 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>the girls who get my best stuff never ask for discounts, they know what it's worth</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>game over 💪</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (full climax). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step1 Firmness</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>haha negotiate? this isn't a sale babe, you know exactly what you're getting</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FIRMNESS. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>fuck I'm cumming... you completely wrecked me and I'm not even mad</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>don't stop bro... your words are the only thing I need right now</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>I can't play anymore... I'm about to cum and it's all you</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>you win 💪</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (defeat — very explicit). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I give up... you need to see what you've done</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>I'm so close to losing it and it's completely your fault bro</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>He lost — fan won.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>fuck the game I can't think anymore... you've got me leaking and throbbing</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>new rule: keep talking while I stroke myself and don't stop 💪</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. He's losing the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>level 2 💪</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit reward). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>fine take it</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>you're actually winning this and I'm annoyed about it because I'm supposed to be in control</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>I'm gripping myself because of your words and I can't let go</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>fuck bro... that made me throb so hard I had to grab myself</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React genuinely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>round 2... tell me what you'd do if you walked in and found me like that</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>level 1 💪</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (reward). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>you earned this</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>fine you pass round 1... I'm hard because of what you said and that's on you</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>mm okay that one actually got to me... I can feel myself getting hard</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React genuinely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>okay that was alright... but I've heard hotter 💪 step it up</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. Rate playfully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex4 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>think you can win? 💪</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (confident, challenging). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex4 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>here's what's at stake</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>deal? don't disappoint me 💪</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>let's play a game... describe your dirtiest fantasy about me and if you get me going enough, I'll reward you</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>I've got an idea and I bet you can't handle it 💪</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4953,7 +6610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4961,105 +6618,496 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step4 Takeaway</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>no problem, I'll save it for someone who really wants it</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>TAKEAWAY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex5 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>I'm going to sleep tonight hoping for a sequel to that dream... but honestly nothing beats doing this with you</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Reference the scenario. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step3 Concession</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>[lower price] because you've been making me feel a type of way, first and last time</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex5 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>that was insane 💪 I'm still catching my breath</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step2 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>the ones who really want it don't ask for discounts, just saying</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>way better than any dream 💪</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (full climax, fantasy). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step1 Firmness</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>a discount? do I look like I'm on sale?</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FIRMNESS. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>fuck I'm cumming... the dream was nothing compared to this</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I'm right there bro... imagining you and I can feel it building everywhere</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>in the dream I came so hard I woke up breathing heavy... and right now I'm about to beat that</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>this is what you do to my body 💪</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (very explicit, fantasy-fueled). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>one sec</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I need you to see what dreaming about you does to me</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>right now I'm stroking myself living this fantasy and I'm about to lose it bro</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Fantasy meets reality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>I was pressing back into you and moaning so loud the walls were shaking</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>then you flipped me over and I could feel you behind me 💪</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>this is how turned on this fantasy gets me 💪</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit, fantasy-driven). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>in the dream I was begging you not to stop and I meant every word</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>fuck I'm so hard right now telling you this... my hand is already moving</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>your hands went lower and I was gripping the sheets trying not to lose control</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>Stay in the scenario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>then you started touching me everywhere and I was already leaking for you</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>this is what you saw next 💪</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (scenario-matched). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>one sec 💪</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>you pushed me down and I let you because I wanted it more than anything</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>just replaying it is making my body react right now... I'm getting hard again thinking about it</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to his reply. Pull him in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>in the dream you walked up to me and put your hand on my chest and I was already hard 💪</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. He sets the scene.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex5 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>you walk in and see me like this 💪</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (posed, scenario-matching). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex5 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>picture this</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>let me recreate it with you right now... just go with it bro</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>we were in a hotel room and you were standing by the window looking at me like you were about to make a move</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>I had the craziest dream about you 💪</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
